--- a/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,1717 +676,1717 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>11.190275134821634</v>
+        <v>11.190275562193602</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>7.5303377671783283</v>
+        <v>7.5303383134640205</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>6.7471039416294865</v>
+        <v>6.7471041826664431</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>5.5835279719189179</v>
+        <v>5.5835282779457591</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>9.1585193049369789</v>
+        <v>9.1585193056434324</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>9.3120531327621698</v>
+        <v>9.3120530775593728</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>8.3422977284372042</v>
+        <v>8.3422976327478526</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>8.2796221725825294</v>
+        <v>8.2796221934725409</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>7.4923506536585096</v>
+        <v>7.4923506642268638</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>10.22407371943765</v>
+        <v>10.224073908473581</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>10.098524452733809</v>
+        <v>10.098524627653516</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>11.416956295325946</v>
+        <v>11.416956216686296</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>10.641107277769702</v>
+        <v>10.641107167546378</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>10.840527161015293</v>
+        <v>10.84052692692784</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>10.28167837023957</v>
+        <v>10.281678189385069</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>9.716399768178837</v>
+        <v>9.7163995913203713</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>9.7323370141475625</v>
+        <v>9.7323368402829331</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>9.3774813397728796</v>
+        <v>9.3774812089647508</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>9.0879642468016346</v>
+        <v>9.0879641331056931</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>9.0635555186139012</v>
+        <v>9.0635553523562233</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>9.6463271243590558</v>
+        <v>9.6463269584300679</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>9.2273250721779387</v>
+        <v>9.2273249116601956</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>9.5174374831976429</v>
+        <v>9.5174373399700496</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>10.803222597220088</v>
+        <v>10.803222215455461</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>10.469474002320689</v>
+        <v>10.469473683516794</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>11.068360211611935</v>
+        <v>11.068359982351176</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>11.669622241615599</v>
+        <v>11.669621920198109</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>11.543568656778177</v>
+        <v>11.543568416684341</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>11.209294159738924</v>
+        <v>11.209293917528862</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>11.101528781230725</v>
+        <v>11.10152860897897</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>10.843373399136267</v>
+        <v>10.843373259236575</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>10.624436417719709</v>
+        <v>10.624436296016579</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>11.732109771974137</v>
+        <v>11.732109514543222</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>11.44254007121212</v>
+        <v>11.442539826130181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>11.407576795615794</v>
+        <v>11.407576533590236</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>11.100339218121848</v>
+        <v>11.100338963006152</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>10.962092554374754</v>
+        <v>10.962092334791622</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>11.345413513149747</v>
+        <v>11.345413373124353</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>11.073946208784069</v>
+        <v>11.073946069362016</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>11.257099003886294</v>
+        <v>11.257098839395088</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>11.152925074497585</v>
+        <v>11.152924907347243</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>11.934612048303729</v>
+        <v>11.934611901507997</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>13.829850843784159</v>
+        <v>13.829850850516584</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>14.194173237524319</v>
+        <v>14.194173298825579</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>14.228039958912412</v>
+        <v>14.228039952658559</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>14.195726849666611</v>
+        <v>14.195726739704099</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>16.389254281209958</v>
+        <v>16.389254267470942</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>18.244911572973862</v>
+        <v>18.244911840891817</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>18.777620602333364</v>
+        <v>18.777620893853317</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>21.88296029108794</v>
+        <v>21.882960738886169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>21.931153155218233</v>
+        <v>21.931153547642062</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>23.185815632835514</v>
+        <v>23.185816408863115</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>24.603370407771632</v>
+        <v>24.603371153026959</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>29.195892553562373</v>
+        <v>29.195893038758197</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>29.504614576699066</v>
+        <v>29.504615149837214</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>30.550384715833466</v>
+        <v>30.55038498372695</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>36.605020580361604</v>
+        <v>36.605021530585411</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>38.489722903226067</v>
+        <v>38.489723758110387</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>41.51105580092792</v>
+        <v>41.511056488381413</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>41.744671968663482</v>
+        <v>41.744672740700572</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>46.966822134178578</v>
+        <v>46.966823484738143</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>52.041529276577471</v>
+        <v>52.041530958812587</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>52.831217471258157</v>
+        <v>52.831219109642397</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>52.552625394584481</v>
+        <v>52.552626855602647</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>55.026793626897955</v>
+        <v>55.026795217083482</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>57.794119214533907</v>
+        <v>57.794120484597443</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>57.830349965899153</v>
+        <v>57.83035152839102</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>60.358209272227647</v>
+        <v>60.358211040461399</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>63.729967827347195</v>
+        <v>63.729969250908823</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>64.946327068319277</v>
+        <v>64.946328229797558</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>64.38660366476779</v>
+        <v>64.386604950028854</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>67.456849605068598</v>
+        <v>67.456850907947697</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>74.507107635934887</v>
+        <v>74.507109641611692</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>73.553812692880015</v>
+        <v>73.553814715233869</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>74.413958020432048</v>
+        <v>74.413959901744832</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>73.703271440549798</v>
+        <v>73.703273430403428</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>74.550865933049053</v>
+        <v>74.550868064879239</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>75.117683240982927</v>
+        <v>75.117685738890074</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>75.353344823530861</v>
+        <v>75.353347339214451</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>79.285984490468664</v>
+        <v>79.285986913265404</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>80.298129847284159</v>
+        <v>80.298132289411242</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>82.517004658298717</v>
+        <v>82.517007330244894</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>84.113422867260255</v>
+        <v>84.11342583826746</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>85.698243896425666</v>
+        <v>85.698246558264202</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>85.604056769124057</v>
+        <v>85.604059582455321</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>88.828184199870023</v>
+        <v>88.828187413443089</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>91.73812647857649</v>
+        <v>91.738130455697245</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>92.30061799294873</v>
+        <v>92.30062214235916</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>95.31423429463365</v>
+        <v>95.314239054898295</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>95.614101147212295</v>
+        <v>95.614105670942905</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>99.522284510600372</v>
+        <v>99.522288730991775</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>100.79825560249297</v>
+        <v>100.79825933383167</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>104.16209212830616</v>
+        <v>104.16209606521534</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>109.39423715675494</v>
+        <v>109.39424049675999</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>115.37478416749877</v>
+        <v>115.37478815667755</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>118.31531550455784</v>
+        <v>118.31531837659271</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>125.02995035571786</v>
+        <v>125.02995346163202</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>128.87582471353653</v>
+        <v>128.87583039356704</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>136.60475627923347</v>
+        <v>136.60476282270801</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>142.2453024169638</v>
+        <v>142.24530963873639</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>148.88483857585626</v>
+        <v>148.88484570831508</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>155.70191842360833</v>
+        <v>155.70192436970194</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>169.4471082339029</v>
+        <v>169.44711427424693</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>178.28290102055041</v>
+        <v>178.28290492204601</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>179.42287204132691</v>
+        <v>179.42287575054283</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>180.82376005929771</v>
+        <v>180.82376381094284</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>187.3152051154548</v>
+        <v>187.31520782967746</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>204.17816297639752</v>
+        <v>204.1781654305988</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>206.67979352211469</v>
+        <v>206.67979587829242</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>217.21243086261137</v>
+        <v>217.21243314142765</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>218.96278272288149</v>
+        <v>218.96278627790616</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>224.0345396726828</v>
+        <v>224.03454300680224</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>226.6491072906482</v>
+        <v>226.64911088659181</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>228.81430636389217</v>
+        <v>228.81430970686907</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>240.96706493761027</v>
+        <v>240.96706745492398</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>260.38224902371013</v>
+        <v>260.38224612423249</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>265.28000171995228</v>
+        <v>265.27999738491854</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>269.49833565183559</v>
+        <v>269.49833095667719</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>274.41763648456566</v>
+        <v>274.41763094061292</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>275.38034722384054</v>
+        <v>275.38034170683238</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>280.46999147425407</v>
+        <v>280.46998693190818</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>289.29210142985789</v>
+        <v>289.2920960263728</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>292.45561848212145</v>
+        <v>292.45561364700592</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>300.15640167041556</v>
+        <v>300.15639810787314</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>307.60092801866546</v>
+        <v>307.60092237907361</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>307.34755374028998</v>
+        <v>307.34754921109919</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>308.45282494358264</v>
+        <v>308.45282025574079</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>310.87961669059149</v>
+        <v>310.87961252391312</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>318.21715071865395</v>
+        <v>318.21714601014435</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>327.03990017923053</v>
+        <v>327.03989667614758</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>337.06218763796215</v>
+        <v>337.06218383625776</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>346.01953543644072</v>
+        <v>346.01953337231765</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>355.12442213677326</v>
+        <v>355.12441640284652</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>371.14578641631425</v>
+        <v>371.14578271093592</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>387.2057395995821</v>
+        <v>387.20573815730364</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>420.07750155211761</v>
+        <v>420.07750016813645</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>426.43871330426106</v>
+        <v>426.43871072121124</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>445.59725394524605</v>
+        <v>445.59724583149949</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>485.69958402363721</v>
+        <v>485.69957497935047</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>513.84798870461725</v>
+        <v>513.84798079389861</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>532.198585847049</v>
+        <v>532.19857723789767</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>569.05474248020596</v>
+        <v>569.05473638952003</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>628.63096581756167</v>
+        <v>628.63095135237222</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>705.78352319955115</v>
+        <v>705.78350071992531</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>762.99395481104079</v>
+        <v>762.99392600032445</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>825.7189620308925</v>
+        <v>825.71894416018074</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>887.57219685049495</v>
+        <v>887.57217760482251</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>952.69423815338098</v>
+        <v>952.69420415616435</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>985.54815718818998</v>
+        <v>985.54812221180123</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1107.3641218819016</v>
+        <v>1107.364089911928</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1154.6329692367831</v>
+        <v>1154.6329283193925</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1215.6643973791818</v>
+        <v>1215.6643718170278</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1242.3302026343524</v>
+        <v>1242.3301697575514</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1336.9225342197012</v>
+        <v>1336.9224976716866</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1385.7852024512006</v>
+        <v>1385.7851629897948</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1430.6998869839363</v>
+        <v>1430.6998305952079</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1596.2780222282304</v>
+        <v>1596.277963572217</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1633.1473032179979</v>
+        <v>1633.1472417251609</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1663.3990605480933</v>
+        <v>1663.399005036287</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1693.6912279630149</v>
+        <v>1693.69117455275</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1761.3737155287465</v>
+        <v>1761.3736684436315</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1808.403257823285</v>
+        <v>1808.4031935653445</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1831.5480647014406</v>
+        <v>1831.5480024700576</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1910.2119057565512</v>
+        <v>1910.2118409902052</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1922.2331007988489</v>
+        <v>1922.2330297037631</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1963.8593337151308</v>
+        <v>1963.8592604910934</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>2015.7924249750843</v>
+        <v>2015.7923525444962</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>2040.6482776062148</v>
+        <v>2040.6482149698447</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>2064.742430733038</v>
+        <v>2064.7423687453952</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>2084.8064639306754</v>
+        <v>2084.8063960012</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>2121.6422691155067</v>
+        <v>2121.6421961290707</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>2132.5996146559296</v>
+        <v>2132.5995399495591</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>2154.077110020889</v>
+        <v>2154.0770418314009</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>2161.1159217591353</v>
+        <v>2161.1158446556487</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>2178.6465193545696</v>
+        <v>2178.6464409738114</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>2181.2371763474621</v>
+        <v>2181.2370986304331</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>2186.4872804589236</v>
+        <v>2186.4871997148675</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>2231.9317256745026</v>
+        <v>2231.9316452477447</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>2249.8477857167563</v>
+        <v>2249.8477040512412</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>2244.5982987571683</v>
+        <v>2244.5982163080798</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>2257.1057815488857</v>
+        <v>2257.1057004026502</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>2262.8035670450577</v>
+        <v>2262.8034884045014</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>2257.6724196125001</v>
+        <v>2257.6723456434606</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>2254.8223343448281</v>
+        <v>2254.8222622855396</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>2259.3284537533777</v>
+        <v>2259.3283816058711</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>2252.2547712572155</v>
+        <v>2252.2546977578813</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>2249.7839135596032</v>
+        <v>2249.783840738864</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>2244.3133383037862</v>
+        <v>2244.3132647213974</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>2238.2504562249846</v>
+        <v>2238.25038165665</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>2227.7040369844599</v>
+        <v>2227.7039627865943</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>2221.0766398673136</v>
+        <v>2221.076566096654</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>2216.1710049981912</v>
+        <v>2216.170931498722</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>2207.5214131005123</v>
+        <v>2207.5213393738859</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>2198.4489446612847</v>
+        <v>2198.4488708118115</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>2189.7541378284568</v>
+        <v>2189.7540639437175</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>2183.0855641149678</v>
+        <v>2183.0854900708414</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>2172.5982981277361</v>
+        <v>2172.5982245635396</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>2164.2440912123739</v>
+        <v>2164.2440184297552</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>2156.9956035768168</v>
+        <v>2156.995531850514</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>2150.8905087254484</v>
+        <v>2150.8904369085494</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>2143.360610445462</v>
+        <v>2143.3605388249084</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>2133.5707943912666</v>
+        <v>2133.5707222901533</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>2124.1099488895325</v>
+        <v>2124.1098771896677</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>2117.1092944532816</v>
+        <v>2117.1092229031642</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>2107.5772166497677</v>
+        <v>2107.5771448852079</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>2099.000281355582</v>
+        <v>2099.0002096657399</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>2089.5976871554662</v>
+        <v>2089.5976157500791</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>2080.8369227709723</v>
+        <v>2080.8368518136226</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>2073.8596503816416</v>
+        <v>2073.8595800231792</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>2066.5288070739812</v>
+        <v>2066.5287371631912</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>2057.8954746241848</v>
+        <v>2057.8954048748319</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>2048.8688800199157</v>
+        <v>2048.8688102894102</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>2041.5558137498922</v>
+        <v>2041.5557445353309</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>2033.3466719058649</v>
+        <v>2033.3466031892176</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>2026.8295786948818</v>
+        <v>2026.8295108878594</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>2020.4940237366911</v>
+        <v>2020.4939558558713</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>2012.4981752987608</v>
+        <v>2012.498107826824</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>2004.9622996294838</v>
+        <v>2004.9622323612264</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1996.7696516631543</v>
+        <v>1996.7695848552542</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1989.2477214355952</v>
+        <v>1989.2476551493164</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1984.3426687396268</v>
+        <v>1984.3426031806591</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1976.989264884533</v>
+        <v>1976.9891998548153</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1970.0616031441089</v>
+        <v>1970.0615385658759</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1962.2707953765721</v>
+        <v>1962.2707311985362</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>1958.3957465941346</v>
+        <v>1958.3956828697603</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1950.4056975180247</v>
+        <v>1950.4056344824326</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1942.9330805203163</v>
+        <v>1942.9330176382998</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>1937.4682493145922</v>
+        <v>1937.4681864459033</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>1931.0680128611384</v>
+        <v>1931.0679503511915</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>1924.5476753496516</v>
+        <v>1924.5476132806086</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>1916.5157048082392</v>
+        <v>1916.5156428520779</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>1911.0590124255659</v>
+        <v>1911.0589507819498</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>1904.1809563312734</v>
+        <v>1904.1808949088363</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>1897.4365064895055</v>
+        <v>1897.4364453512746</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1892.7236603791382</v>
+        <v>1892.7235992108781</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1886.2883565935483</v>
+        <v>1886.2882956148783</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1879.7141570742076</v>
+        <v>1879.714096412149</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1872.3152034536022</v>
+        <v>1872.3151429052882</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>1865.4839544524932</v>
+        <v>1865.483894364007</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1860.3805350331079</v>
+        <v>1860.3804745398645</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>1857.5673536010106</v>
+        <v>1857.5672921286402</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>1850.6839358253158</v>
+        <v>1850.6838744376128</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1844.9523808576312</v>
+        <v>1844.9523186898602</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>1841.6342242999772</v>
+        <v>1841.6341625654934</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>1836.2990019029594</v>
+        <v>1836.2989397479078</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1831.9621510554052</v>
+        <v>1831.9620891780412</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1826.7265677676537</v>
+        <v>1826.7265054048733</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>1826.3693283870189</v>
+        <v>1826.3692660686736</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1821.0782518850679</v>
+        <v>1821.0781891911511</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1818.5683899149169</v>
+        <v>1818.5683276194595</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>1813.3158913478605</v>
+        <v>1813.3158307786846</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>1807.883433524953</v>
+        <v>1807.8833724826729</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1802.5073252891104</v>
+        <v>1802.5072642004102</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1796.9369721416356</v>
+        <v>1796.936911659192</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>1790.9265279913259</v>
+        <v>1790.9264672106788</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1789.275703049346</v>
+        <v>1789.2756427605816</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1783.9903538232852</v>
+        <v>1783.9902937067079</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>1779.5107315366815</v>
+        <v>1779.5106715497275</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1774.3366457021111</v>
+        <v>1774.3365858787456</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>1769.0011990958249</v>
+        <v>1769.0011393114205</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>1763.3689556525276</v>
+        <v>1763.3688959825372</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>1758.6511913473985</v>
+        <v>1758.6511316944009</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1754.3910763345746</v>
+        <v>1754.3910163143671</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>1749.5003613073682</v>
+        <v>1749.5003020767774</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1745.4098713987503</v>
+        <v>1745.4098115695851</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1740.096010516861</v>
+        <v>1740.0959509648646</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1735.9676863654936</v>
+        <v>1735.967627696826</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>1732.7308517930262</v>
+        <v>1732.7307938171334</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>1730.404898710934</v>
+        <v>1730.4048416915214</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>1726.4922910332884</v>
+        <v>1726.4922346065955</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>1721.8596056818199</v>
+        <v>1721.8595501520206</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>1717.1322024693195</v>
+        <v>1717.1321464691089</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>1711.9831923130289</v>
+        <v>1711.9831362208913</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>1707.5926636892475</v>
+        <v>1707.5926080814168</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1701.5847940448009</v>
+        <v>1701.5847386142589</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1696.9830497460284</v>
+        <v>1696.982994548863</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1694.9081371621944</v>
+        <v>1694.9080824696546</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>1690.8243948901502</v>
+        <v>1690.8243404376776</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>1688.1959833690564</v>
+        <v>1688.1959290377963</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>1682.6729231190595</v>
+        <v>1682.6728686848458</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>1677.816042584798</v>
+        <v>1677.8159878597241</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>1673.3105315835182</v>
+        <v>1673.3104768176293</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1668.8023522943861</v>
+        <v>1668.8022976698412</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>1664.1798613568069</v>
+        <v>1664.1798069553156</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>1659.1375516028077</v>
+        <v>1659.1374975212489</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1654.7063045944453</v>
+        <v>1654.7062507315577</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1652.1280298875349</v>
+        <v>1652.1279767111268</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>1648.7578014152025</v>
+        <v>1648.757748196128</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>1644.1500671163847</v>
+        <v>1644.1500139593325</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>1644.0184080333247</v>
+        <v>1644.0183542500158</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>1638.7754642564441</v>
+        <v>1638.775410465842</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>1636.3386000122398</v>
+        <v>1636.3385456598378</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>1633.3861516350644</v>
+        <v>1633.386097503872</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>1632.0814257643603</v>
+        <v>1632.0813718911998</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>1628.0201428329192</v>
+        <v>1628.0200892409312</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1624.2601358639779</v>
+        <v>1624.260082684827</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1619.6910773904997</v>
+        <v>1619.6910243011448</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>1615.4365168342993</v>
+        <v>1615.4364639956048</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>1613.0352510624318</v>
+        <v>1613.0351983674925</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>1608.2452306533428</v>
+        <v>1608.2451782157568</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>1606.1357800894821</v>
+        <v>1606.1357278183309</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>1601.4856398637703</v>
+        <v>1601.485587527555</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>1597.5333124434287</v>
+        <v>1597.5332606251231</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>1593.127569392487</v>
+        <v>1593.1275178330579</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>1589.7421640359651</v>
+        <v>1589.7421129072502</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1585.9477131207948</v>
+        <v>1585.9476626150999</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1583.6491229930116</v>
+        <v>1583.6490725874473</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>1580.3953498976582</v>
+        <v>1580.395298759543</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>1576.2540242458124</v>
+        <v>1576.2539729769408</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>1571.6907676261014</v>
+        <v>1571.6907162998425</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>1569.7349102436997</v>
+        <v>1569.7348592135834</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>1565.945077901953</v>
+        <v>1565.9450271909184</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>1561.7065449935756</v>
+        <v>1561.7064945174334</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>1558.0760990719025</v>
+        <v>1558.0760485699013</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>1553.7770351407792</v>
+        <v>1553.7769848678647</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1549.1341140269574</v>
+        <v>1549.134064232742</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1544.4838294238755</v>
+        <v>1544.4837799349807</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>1541.1816111912322</v>
+        <v>1541.1815620148518</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>1536.5279402764013</v>
+        <v>1536.52789117826</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>1533.6577969646175</v>
+        <v>1533.6577477079802</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>1529.2451016092468</v>
+        <v>1529.2450524902524</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>1524.6598597039388</v>
+        <v>1524.6598107915618</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>1520.0739688855863</v>
+        <v>1520.0739201253502</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>1516.0885290291997</v>
+        <v>1516.0884804302004</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>1512.0308735857441</v>
+        <v>1512.0308250908256</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1507.5374801023622</v>
+        <v>1507.5374318443044</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1503.0370631179487</v>
+        <v>1503.0370149986873</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>1498.5246765043862</v>
+        <v>1498.5246285459577</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>1494.1711494203944</v>
+        <v>1494.1711015822416</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>1489.9320950358581</v>
+        <v>1489.9320473276277</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>1485.5959057463424</v>
+        <v>1485.5958581192324</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>1481.1670856216699</v>
+        <v>1481.16703816165</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1476.8807521431438</v>
+        <v>1476.8807048146632</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>1472.540157642439</v>
+        <v>1472.5401104375171</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1468.2657322499228</v>
+        <v>1468.2656852039638</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>1464.0135736011096</v>
+        <v>1464.0135267003641</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>1459.7274294026229</v>
+        <v>1459.7273826575852</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>1455.4363345199065</v>
+        <v>1455.4362879153023</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>1451.1641645424238</v>
+        <v>1451.1641180773063</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>1446.9205947725811</v>
+        <v>1446.9205484446259</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>1442.8386287341693</v>
+        <v>1442.8385825476507</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>1438.884557557971</v>
+        <v>1438.8845115123447</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>1434.7373282299686</v>
+        <v>1434.7372823059463</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +58,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,1717 +684,1717 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>11.190275562193602</v>
+        <v>11.190275123624973</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>7.5303383134640205</v>
+        <v>7.5303377944424517</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>6.7471041826664431</v>
+        <v>6.7471040884173572</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>5.5835282779457591</v>
+        <v>5.5835282185959603</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>9.1585193056434324</v>
+        <v>9.1585195974775022</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>9.3120530775593728</v>
+        <v>9.3120533733493094</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>8.3422976327478526</v>
+        <v>8.3422978856485752</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>8.2796221934725409</v>
+        <v>8.27962224868139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>7.4923506642268638</v>
+        <v>7.4923507102017197</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>10.224073908473581</v>
+        <v>10.224074122592645</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>10.098524627653516</v>
+        <v>10.098525216963594</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>11.416956216686296</v>
+        <v>11.416956820267798</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>10.641107167546378</v>
+        <v>10.641107732768884</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>10.84052692692784</v>
+        <v>10.84052764947697</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>10.281678189385069</v>
+        <v>10.281678771909887</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>9.7163995913203713</v>
+        <v>9.7164001264417124</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>9.7323368402829331</v>
+        <v>9.7323373994298379</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>9.3774812089647508</v>
+        <v>9.3774817640167907</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>9.0879641331056931</v>
+        <v>9.0879646620451755</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>9.0635553523562233</v>
+        <v>9.0635558140231662</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>9.6463269584300679</v>
+        <v>9.6463275048960853</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>9.2273249116601956</v>
+        <v>9.227325434451112</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>9.5174373399700496</v>
+        <v>9.5174379057544911</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>10.803222215455461</v>
+        <v>10.803222696362482</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>10.469473683516794</v>
+        <v>10.469474181842644</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>11.068359982351176</v>
+        <v>11.068360481649888</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>11.669621920198109</v>
+        <v>11.669622359966391</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>11.543568416684341</v>
+        <v>11.543568799266994</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>11.209293917528862</v>
+        <v>11.209294271233661</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>11.10152860897897</v>
+        <v>11.101528874896172</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>10.843373259236575</v>
+        <v>10.843373481729508</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>10.624436296016579</v>
+        <v>10.624436525715756</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>11.732109514543222</v>
+        <v>11.732109833412775</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>11.442539826130181</v>
+        <v>11.442540105519809</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>11.407576533590236</v>
+        <v>11.407576813337</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>11.100338963006152</v>
+        <v>11.100339229834137</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>10.962092334791622</v>
+        <v>10.962092552574703</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>11.345413373124353</v>
+        <v>11.345413502629635</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>11.073946069362016</v>
+        <v>11.073946201737405</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>11.257098839395088</v>
+        <v>11.25709897399534</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>11.152924907347243</v>
+        <v>11.152925075791083</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>11.934611901507997</v>
+        <v>11.93461209759813</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>13.829850850516584</v>
+        <v>13.829850899208141</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>14.194173298825579</v>
+        <v>14.194173003699378</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>14.228039952658559</v>
+        <v>14.228039646702959</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>14.195726739704099</v>
+        <v>14.195726522857264</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>16.389254267470942</v>
+        <v>16.389253795778302</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>18.244911840891817</v>
+        <v>18.244911339359014</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>18.777620893853317</v>
+        <v>18.77762032950659</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>21.882960738886169</v>
+        <v>21.882960215036373</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>21.931153547642062</v>
+        <v>21.931153373660081</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>23.185816408863115</v>
+        <v>23.18581600436482</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>24.603371153026959</v>
+        <v>24.603371180184602</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>29.195893038758197</v>
+        <v>29.19589343517022</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>29.504615149837214</v>
+        <v>29.504615452581756</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>30.55038498372695</v>
+        <v>30.550385594011722</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>36.605021530585411</v>
+        <v>36.605022425570446</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>38.489723758110387</v>
+        <v>38.489723270611726</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>41.511056488381413</v>
+        <v>41.511055379071919</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>41.744672740700572</v>
+        <v>41.744671902187385</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>46.966823484738143</v>
+        <v>46.966822194721914</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>52.041530958812587</v>
+        <v>52.041529404719867</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>52.831219109642397</v>
+        <v>52.831218271894969</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>52.552626855602647</v>
+        <v>52.552626102473802</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>55.026795217083482</v>
+        <v>55.026794376211342</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>57.794120484597443</v>
+        <v>57.794120940023191</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>57.83035152839102</v>
+        <v>57.830352248556693</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>60.358211040461399</v>
+        <v>60.35821168675637</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>63.729969250908823</v>
+        <v>63.729969914950104</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>64.946328229797558</v>
+        <v>64.946328576367705</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>64.386604950028854</v>
+        <v>64.386605284002201</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>67.456850907947697</v>
+        <v>67.456851219365163</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>74.507109641611692</v>
+        <v>74.507110312359146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>73.553814715233869</v>
+        <v>73.553815416421457</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>74.413959901744832</v>
+        <v>74.41396071725471</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>73.703273430403428</v>
+        <v>73.703274175597286</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>74.550868064879239</v>
+        <v>74.550868783323764</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>75.117685738890074</v>
+        <v>75.117686392302105</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>75.353347339214451</v>
+        <v>75.353348193794233</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>79.285986913265404</v>
+        <v>79.285988050245251</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>80.298132289411242</v>
+        <v>80.298133239306551</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>82.517007330244894</v>
+        <v>82.517008011349873</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>84.11342583826746</v>
+        <v>84.113426487580625</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>85.698246558264202</v>
+        <v>85.698247216805981</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>85.604059582455321</v>
+        <v>85.604060213500588</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>88.828187413443089</v>
+        <v>88.828187871203312</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>91.738130455697245</v>
+        <v>91.738129529686219</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>92.30062214235916</v>
+        <v>92.300620620414861</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>95.314239054898295</v>
+        <v>95.314237660184673</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>95.614105670942905</v>
+        <v>95.614104525605285</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>99.522288730991775</v>
+        <v>99.522287335655079</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>100.79825933383167</v>
+        <v>100.79825854502877</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>104.16209606521534</v>
+        <v>104.1620954431384</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>109.39424049675999</v>
+        <v>109.39424000124349</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>115.37478815667755</v>
+        <v>115.37478815294008</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>118.31531837659271</v>
+        <v>118.31531842324864</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>125.02995346163202</v>
+        <v>125.02995244445744</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>128.87583039356704</v>
+        <v>128.8758283238393</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>136.60476282270801</v>
+        <v>136.60476073614009</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>142.24530963873639</v>
+        <v>142.2453070892532</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>148.88484570831508</v>
+        <v>148.88484316419667</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>155.70192436970194</v>
+        <v>155.7019216641178</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>169.44711427424693</v>
+        <v>169.44711111656673</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>178.28290492204601</v>
+        <v>178.28290202945846</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>179.42287575054283</v>
+        <v>179.42287303180655</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>180.82376381094284</v>
+        <v>180.82376135609951</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>187.31520782967746</v>
+        <v>187.31520559385845</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>204.1781654305988</v>
+        <v>204.1781638207251</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>206.67979587829242</v>
+        <v>206.67979397101493</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>217.21243314142765</v>
+        <v>217.21243052820003</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>218.96278627790616</v>
+        <v>218.96278343084981</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>224.03454300680224</v>
+        <v>224.03454155825781</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>226.64911088659181</v>
+        <v>226.64910931595887</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>228.81430970686907</v>
+        <v>228.81430879377123</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>240.96706745492398</v>
+        <v>240.96706571312311</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>260.38224612423249</v>
+        <v>260.38224807165454</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>265.27999738491854</v>
+        <v>265.27999960529831</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>269.49833095667719</v>
+        <v>269.4983314661273</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>274.41763094061292</v>
+        <v>274.41763140305551</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>275.38034170683238</v>
+        <v>275.3803425574755</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>280.46998693190818</v>
+        <v>280.46998753590481</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>289.2920960263728</v>
+        <v>289.29209749465241</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>292.45561364700592</v>
+        <v>292.45561383763771</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>300.15639810787314</v>
+        <v>300.15639814370672</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>307.60092237907361</v>
+        <v>307.60092542192336</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>307.34754921109919</v>
+        <v>307.34755149727459</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>308.45282025574079</v>
+        <v>308.45282260657274</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>310.87961252391312</v>
+        <v>310.87961452860509</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>318.21714601014435</v>
+        <v>318.21714817120017</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>327.03989667614758</v>
+        <v>327.0398983731298</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>337.06218383625776</v>
+        <v>337.06218843281493</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>346.01953337231765</v>
+        <v>346.01953490752584</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>355.12441640284652</v>
+        <v>355.12441910768274</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>371.14578271093592</v>
+        <v>371.14578672943907</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>387.20573815730364</v>
+        <v>387.20574081375622</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>420.07750016813645</v>
+        <v>420.07749973853993</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>426.43871072121124</v>
+        <v>426.43871094001184</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>445.59724583149949</v>
+        <v>445.59725137014595</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>485.69957497935047</v>
+        <v>485.69958318195683</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>513.84798079389861</v>
+        <v>513.847991855852</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>532.19857723789767</v>
+        <v>532.19858832004377</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>569.05473638952003</v>
+        <v>569.05474303499955</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>628.63095135237222</v>
+        <v>628.63096044785084</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>705.78350071992531</v>
+        <v>705.78350790442414</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>762.99392600032445</v>
+        <v>762.99393372730913</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>825.71894416018074</v>
+        <v>825.71895007631201</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>887.57217760482251</v>
+        <v>887.57218127792862</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>952.69420415616435</v>
+        <v>952.69422499249845</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>985.54812221180123</v>
+        <v>985.54815563137117</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1107.364089911928</v>
+        <v>1107.3641376998694</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1154.6329283193925</v>
+        <v>1154.6329623589475</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1215.6643718170278</v>
+        <v>1215.6644071941355</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1242.3301697575514</v>
+        <v>1242.3302159646128</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1336.9224976716866</v>
+        <v>1336.9225460052376</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1385.7851629897948</v>
+        <v>1385.7852207758442</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1430.6998305952079</v>
+        <v>1430.6998973401037</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1596.277963572217</v>
+        <v>1596.2780344691259</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1633.1472417251609</v>
+        <v>1633.1473144571751</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1663.399005036287</v>
+        <v>1663.3990777763931</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1693.69117455275</v>
+        <v>1693.6912525146181</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1761.3736684436315</v>
+        <v>1761.3737516185768</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1808.4031935653445</v>
+        <v>1808.4032751281447</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1831.5480024700576</v>
+        <v>1831.5480844869637</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1910.2118409902052</v>
+        <v>1910.2119104642259</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1922.2330297037631</v>
+        <v>1922.2331009619822</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1963.8592604910934</v>
+        <v>1963.8593362889269</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>2015.7923525444962</v>
+        <v>2015.7924328949284</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>2040.6482149698447</v>
+        <v>2040.6482873070433</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>2064.7423687453952</v>
+        <v>2064.7424462234844</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>2084.8063960012</v>
+        <v>2084.8064767010828</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>2121.6421961290707</v>
+        <v>2121.6422783732619</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>2132.5995399495591</v>
+        <v>2132.5996199026181</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>2154.0770418314009</v>
+        <v>2154.0771250855355</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>2161.1158446556487</v>
+        <v>2161.1159316049502</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>2178.6464409738114</v>
+        <v>2178.6465301740732</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>2181.2370986304331</v>
+        <v>2181.2371827660832</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>2186.4871997148675</v>
+        <v>2186.4872823499732</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>2231.9316452477447</v>
+        <v>2231.9317259167997</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>2249.8477040512412</v>
+        <v>2249.847785582956</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>2244.5982163080798</v>
+        <v>2244.5982999870776</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>2257.1057004026502</v>
+        <v>2257.105781967573</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>2262.8034884045014</v>
+        <v>2262.803571577303</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>2257.6723456434606</v>
+        <v>2257.6724260528358</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>2254.8222622855396</v>
+        <v>2254.8223410598262</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>2259.3283816058711</v>
+        <v>2259.3284622509227</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>2252.2546977578813</v>
+        <v>2252.2547787050562</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>2249.783840738864</v>
+        <v>2249.7839217299565</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>2244.3132647213974</v>
+        <v>2244.3133475880509</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>2238.25038165665</v>
+        <v>2238.2504645024192</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>2227.7039627865943</v>
+        <v>2227.7040448340781</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>2221.076566096654</v>
+        <v>2221.0766478896071</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>2216.170931498722</v>
+        <v>2216.1710129299822</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>2207.5213393738859</v>
+        <v>2207.5214200980968</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>2198.4488708118115</v>
+        <v>2198.4489505034421</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>2189.7540639437175</v>
+        <v>2189.7541439327692</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>2183.0854900708414</v>
+        <v>2183.0855694816637</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>2172.5982245635396</v>
+        <v>2172.5983034033952</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>2164.2440184297552</v>
+        <v>2164.2440969304807</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>2156.995531850514</v>
+        <v>2156.9956087758815</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>2150.8904369085494</v>
+        <v>2150.8905135304253</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>2143.3605388249084</v>
+        <v>2143.3606151808672</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>2133.5707222901533</v>
+        <v>2133.570799057703</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>2124.1098771896677</v>
+        <v>2124.1099533664633</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>2117.1092229031642</v>
+        <v>2117.1092987715201</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>2107.5771448852079</v>
+        <v>2107.5772203025022</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>2099.0002096657399</v>
+        <v>2099.0002845873505</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>2089.5976157500791</v>
+        <v>2089.597690192425</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>2080.8368518136226</v>
+        <v>2080.8369260809932</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>2073.8595800231792</v>
+        <v>2073.8596536081868</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>2066.5287371631912</v>
+        <v>2066.5288103992502</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>2057.8954048748319</v>
+        <v>2057.8954782429482</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>2048.8688102894102</v>
+        <v>2048.8688834648683</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>2041.5557445353309</v>
+        <v>2041.5558172727233</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>2033.3466031892176</v>
+        <v>2033.3466752362979</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>2026.8295108878594</v>
+        <v>2026.8295824399265</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>2020.4939558558713</v>
+        <v>2020.4940270181357</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>2012.498107826824</v>
+        <v>2012.4981781564784</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>2004.9622323612264</v>
+        <v>2004.9623031488907</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1996.7695848552542</v>
+        <v>1996.7696553903647</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1989.2476551493164</v>
+        <v>1989.2477251974251</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1984.3426031806591</v>
+        <v>1984.3426730784959</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1976.9891998548153</v>
+        <v>1976.9892694495268</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1970.0615385658759</v>
+        <v>1970.0616075575549</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1962.2707311985362</v>
+        <v>1962.2707999003969</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>1958.3956828697603</v>
+        <v>1958.3957515378133</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1950.4056344824326</v>
+        <v>1950.4057024048623</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1942.9330176382998</v>
+        <v>1942.9330853726201</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>1937.4681864459033</v>
+        <v>1937.4682545705541</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>1931.0679503511915</v>
+        <v>1931.0680183529309</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>1924.5476132806086</v>
+        <v>1924.5476807412531</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>1916.5156428520779</v>
+        <v>1916.515710047599</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>1911.0589507819498</v>
+        <v>1911.0590174207541</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>1904.1808949088363</v>
+        <v>1904.1809618218854</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>1897.4364453512746</v>
+        <v>1897.4365119027339</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1892.7235992108781</v>
+        <v>1892.723665227815</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1886.2882956148783</v>
+        <v>1886.2883612725859</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1879.714096412149</v>
+        <v>1879.7141618016919</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1872.3151429052882</v>
+        <v>1872.3152079944255</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>1865.483894364007</v>
+        <v>1865.4839591582981</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1860.3804745398645</v>
+        <v>1860.3805396135888</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>1857.5672921286402</v>
+        <v>1857.5673567099443</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>1850.6838744376128</v>
+        <v>1850.6839389518138</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1844.9523186898602</v>
+        <v>1844.9523833103065</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>1841.6341625654934</v>
+        <v>1841.6342273334212</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>1836.2989397479078</v>
+        <v>1836.2990045194051</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1831.9620891780412</v>
+        <v>1831.9621544924382</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1826.7265054048733</v>
+        <v>1826.7265707865986</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>1826.3692660686736</v>
+        <v>1826.3693316083616</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1821.0781891911511</v>
+        <v>1821.0782547732074</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1818.5683276194595</v>
+        <v>1818.5683929967645</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>1813.3158307786846</v>
+        <v>1813.3158956506131</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>1807.8833724826729</v>
+        <v>1807.8834377723786</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1802.5072642004102</v>
+        <v>1802.5073296472265</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1796.936911659192</v>
+        <v>1796.9369766204106</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>1790.9264672106788</v>
+        <v>1790.9265320437817</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1789.2756427605816</v>
+        <v>1789.2757069396741</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1783.9902937067079</v>
+        <v>1783.9903576600821</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>1779.5106715497275</v>
+        <v>1779.5107351800684</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1774.3365858787456</v>
+        <v>1774.3366498371583</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>1769.0011393114205</v>
+        <v>1769.0012033400326</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>1763.3688959825372</v>
+        <v>1763.3689596395202</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>1758.6511316944009</v>
+        <v>1758.6511955548235</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1754.3910163143671</v>
+        <v>1754.39108059821</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>1749.5003020767774</v>
+        <v>1749.5003659482977</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1745.4098115695851</v>
+        <v>1745.4098760193719</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1740.0959509648646</v>
+        <v>1740.096014734406</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1735.967627696826</v>
+        <v>1735.9676906645909</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>1732.7307938171334</v>
+        <v>1732.7308557078388</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>1730.4048416915214</v>
+        <v>1730.4049028255333</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>1726.4922346065955</v>
+        <v>1726.4922953676494</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>1721.8595501520206</v>
+        <v>1721.8596107400244</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>1717.1321464691089</v>
+        <v>1717.1322072521291</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>1711.9831362208913</v>
+        <v>1711.9831968310568</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>1707.5926080814168</v>
+        <v>1707.5926684262104</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1701.5847386142589</v>
+        <v>1701.5847988028847</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1696.982994548863</v>
+        <v>1696.9830542766117</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1694.9080824696546</v>
+        <v>1694.9081418962412</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>1690.8243404376776</v>
+        <v>1690.8244000370839</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>1688.1959290377963</v>
+        <v>1688.1959888777451</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>1682.6728686848458</v>
+        <v>1682.6729286698405</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>1677.8159878597241</v>
+        <v>1677.8160482112175</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>1673.3104768176293</v>
+        <v>1673.3105371793954</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1668.8022976698412</v>
+        <v>1668.8023575682985</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>1664.1798069553156</v>
+        <v>1664.179867018931</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>1659.1374975212489</v>
+        <v>1659.1375572475363</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1654.7062507315577</v>
+        <v>1654.7063102011373</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1652.1279767111268</v>
+        <v>1652.1280352582185</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>1648.757748196128</v>
+        <v>1648.7578058018466</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>1644.1500139593325</v>
+        <v>1644.1500710322841</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>1644.0183542500158</v>
+        <v>1644.0184112464074</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>1638.775410465842</v>
+        <v>1638.775467076644</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>1636.3385456598378</v>
+        <v>1636.3386024766746</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>1633.386097503872</v>
+        <v>1633.3861529651133</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>1632.0813718911998</v>
+        <v>1632.0814270383182</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>1628.0200892409312</v>
+        <v>1628.0201446607477</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1624.260082684827</v>
+        <v>1624.260138045418</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1619.6910243011448</v>
+        <v>1619.6910792657882</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>1615.4364639956048</v>
+        <v>1615.4365186125544</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>1613.0351983674925</v>
+        <v>1613.0352537338497</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>1608.2451782157568</v>
+        <v>1608.2452334499098</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>1606.1357278183309</v>
+        <v>1606.135782773199</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>1601.485587527555</v>
+        <v>1601.4856422365149</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>1597.5332606251231</v>
+        <v>1597.533315145035</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>1593.1275178330579</v>
+        <v>1593.1275724272573</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>1589.7421129072502</v>
+        <v>1589.7421675214446</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1585.9476626150999</v>
+        <v>1585.9477167912059</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1583.6490725874473</v>
+        <v>1583.649126268522</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>1580.395298759543</v>
+        <v>1580.3953522442735</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>1576.2539729769408</v>
+        <v>1576.2540264530107</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>1571.6907162998425</v>
+        <v>1571.6907697520346</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>1569.7348592135834</v>
+        <v>1569.7349121516102</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>1565.9450271909184</v>
+        <v>1565.9450793930002</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>1561.7064945174334</v>
+        <v>1561.7065466199299</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>1558.0760485699013</v>
+        <v>1558.0761009554979</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>1553.7769848678647</v>
+        <v>1553.7770371592117</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1549.134064232742</v>
+        <v>1549.1341163603629</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1544.4837799349807</v>
+        <v>1544.4838318273246</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>1541.1815620148518</v>
+        <v>1541.1816138690915</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>1536.52789117826</v>
+        <v>1536.5279428379149</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>1533.6577477079802</v>
+        <v>1533.6577993341725</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>1529.2450524902524</v>
+        <v>1529.2451038209795</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>1524.6598107915618</v>
+        <v>1524.6598619261981</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>1520.0739201253502</v>
+        <v>1520.0739711208535</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>1516.0884804302004</v>
+        <v>1516.0885312509922</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>1512.0308250908256</v>
+        <v>1512.0308757303453</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1507.5374318443044</v>
+        <v>1507.5374822418898</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1503.0370149986873</v>
+        <v>1503.0370652493516</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>1498.5246285459577</v>
+        <v>1498.524678648032</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>1494.1711015822416</v>
+        <v>1494.1711515199511</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>1489.9320473276277</v>
+        <v>1489.9320971275069</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>1485.5958581192324</v>
+        <v>1485.5959077644957</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>1481.16703816165</v>
+        <v>1481.1670876279372</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1476.8807048146632</v>
+        <v>1476.8807541341912</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>1472.5401104375171</v>
+        <v>1472.5401596200584</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1468.2656852039638</v>
+        <v>1468.2657342255625</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>1464.0135267003641</v>
+        <v>1464.0135755976507</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>1459.7273826575852</v>
+        <v>1459.7274314254994</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>1455.4362879153023</v>
+        <v>1455.4363365302288</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>1451.1641180773063</v>
+        <v>1451.164166550313</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>1446.9205484446259</v>
+        <v>1446.9205967761791</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>1442.8385825476507</v>
+        <v>1442.8386307379658</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>1438.8845115123447</v>
+        <v>1438.8845595178691</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>1434.7372823059463</v>
+        <v>1434.737330176514</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -46,11 +46,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -62,6 +64,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,1717 +688,1717 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>11.190275123624973</v>
+        <v>11.19027594051609</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>7.5303377944424517</v>
+        <v>7.5303384357471543</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>6.7471040884173572</v>
+        <v>6.747104320797952</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>5.5835282185959603</v>
+        <v>5.5835283022981672</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>9.1585195974775022</v>
+        <v>9.1585192981379198</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>9.3120533733493094</v>
+        <v>9.3120532366870936</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>8.3422978856485752</v>
+        <v>8.3422978838417219</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>8.27962224868139</v>
+        <v>8.2796223208018969</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>7.4923507102017197</v>
+        <v>7.4923507095912116</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>10.224074122592645</v>
+        <v>10.224074034053878</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>10.098525216963594</v>
+        <v>10.098524794691533</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>11.416956820267798</v>
+        <v>11.416956750360837</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>10.641107732768884</v>
+        <v>10.641107660128911</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>10.84052764947697</v>
+        <v>10.8405273755398</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>10.281678771909887</v>
+        <v>10.281678570459038</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>9.7164001264417124</v>
+        <v>9.7163999369547351</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>9.7323373994298379</v>
+        <v>9.7323372047510475</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>9.3774817640167907</v>
+        <v>9.3774815323561267</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>9.0879646620451755</v>
+        <v>9.0879644194919589</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>9.0635558140231662</v>
+        <v>9.0635555258999254</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>9.6463275048960853</v>
+        <v>9.646326943997213</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>9.227325434451112</v>
+        <v>9.2273248964950891</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>9.5174379057544911</v>
+        <v>9.5174373101854695</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>10.803222696362482</v>
+        <v>10.803222131634156</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>10.469474181842644</v>
+        <v>10.469473629508391</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>11.068360481649888</v>
+        <v>11.068359905554052</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>11.669622359966391</v>
+        <v>11.669622035735163</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>11.543568799266994</v>
+        <v>11.543568388449684</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>11.209294271233661</v>
+        <v>11.209293879918937</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>11.101528874896172</v>
+        <v>11.101528508922318</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>10.843373481729508</v>
+        <v>10.843373178008621</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>10.624436525715756</v>
+        <v>10.624436215335717</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>11.732109833412775</v>
+        <v>11.732109507085671</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>11.442540105519809</v>
+        <v>11.442539817234897</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>11.407576813337</v>
+        <v>11.407576499968449</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>11.100339229834137</v>
+        <v>11.10033892775413</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>10.962092552574703</v>
+        <v>10.96209226585268</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>11.345413502629635</v>
+        <v>11.34541322429755</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>11.073946201737405</v>
+        <v>11.073945932400145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>11.25709897399534</v>
+        <v>11.257098741881402</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>11.152925075791083</v>
+        <v>11.152924846178905</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>11.93461209759813</v>
+        <v>11.934611827327494</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>13.829850899208141</v>
+        <v>13.829850898132754</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>14.194173003699378</v>
+        <v>14.194173157334644</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>14.228039646702959</v>
+        <v>14.228039903791924</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>14.195726522857264</v>
+        <v>14.19572684270203</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>16.389253795778302</v>
+        <v>16.389254187556318</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>18.244911339359014</v>
+        <v>18.244911662649503</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>18.77762032950659</v>
+        <v>18.77762117888561</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>21.882960215036373</v>
+        <v>21.882960854527926</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>21.931153373660081</v>
+        <v>21.931153967299903</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>23.18581600436482</v>
+        <v>23.185816433041879</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>24.603371180184602</v>
+        <v>24.6033711332698</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>29.19589343517022</v>
+        <v>29.195893748950901</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>29.504615452581756</v>
+        <v>29.50461604982609</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>30.550385594011722</v>
+        <v>30.55038608429907</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>36.605022425570446</v>
+        <v>36.605022445100488</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>38.489723270611726</v>
+        <v>38.489724367364232</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>41.511055379071919</v>
+        <v>41.511056703617768</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>41.744671902187385</v>
+        <v>41.744672817285483</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>46.966822194721914</v>
+        <v>46.966823224394112</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>52.041529404719867</v>
+        <v>52.041531069111009</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>52.831218271894969</v>
+        <v>52.831220258653815</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>52.552626102473802</v>
+        <v>52.552628014228247</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>55.026794376211342</v>
+        <v>55.026795925282265</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>57.794120940023191</v>
+        <v>57.794121214462741</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>57.830352248556693</v>
+        <v>57.830352246092261</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>60.35821168675637</v>
+        <v>60.358211481094678</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>63.729969914950104</v>
+        <v>63.729969922557565</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>64.946328576367705</v>
+        <v>64.946328746953967</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>64.386605284002201</v>
+        <v>64.38660523742054</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>67.456851219365163</v>
+        <v>67.456851435169781</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>74.507110312359146</v>
+        <v>74.507111649277675</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>73.553815416421457</v>
+        <v>73.553816727879209</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>74.41396071725471</v>
+        <v>74.413962047922084</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>73.703274175597286</v>
+        <v>73.703275481364642</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>74.550868783323764</v>
+        <v>74.550869871530466</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>75.117686392302105</v>
+        <v>75.117687441148391</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>75.353348193794233</v>
+        <v>75.353349161396991</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>79.285988050245251</v>
+        <v>79.285988428338385</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>80.298133239306551</v>
+        <v>80.298133990178286</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>82.517008011349873</v>
+        <v>82.517008919990104</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>84.113426487580625</v>
+        <v>84.11342719483325</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>85.698247216805981</v>
+        <v>85.698248040417766</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>85.604060213500588</v>
+        <v>85.604061136032115</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>88.828187871203312</v>
+        <v>88.828188888460019</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>91.738129529686219</v>
+        <v>91.73813138155559</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>92.300620620414861</v>
+        <v>92.30062259259185</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>95.314237660184673</v>
+        <v>95.314238494362513</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>95.614104525605285</v>
+        <v>95.614105401347601</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>99.522287335655079</v>
+        <v>99.522288492553812</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>100.79825854502877</v>
+        <v>100.79825975482967</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>104.1620954431384</v>
+        <v>104.16209597311122</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>109.39424000124349</v>
+        <v>109.39424099163141</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>115.37478815294008</v>
+        <v>115.37478931398762</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>118.31531842324864</v>
+        <v>118.31531988137358</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>125.02995244445744</v>
+        <v>125.02995376936336</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>128.8758283238393</v>
+        <v>128.87582969892085</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>136.60476073614009</v>
+        <v>136.60476282407768</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>142.2453070892532</v>
+        <v>142.24530840918183</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>148.88484316419667</v>
+        <v>148.88484402746545</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>155.7019216641178</v>
+        <v>155.70192348232482</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>169.44711111656673</v>
+        <v>169.4471130728642</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>178.28290202945846</v>
+        <v>178.28290595837353</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>179.42287303180655</v>
+        <v>179.42287705441547</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>180.82376135609951</v>
+        <v>180.82376566136054</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>187.31520559385845</v>
+        <v>187.31520994234813</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>204.1781638207251</v>
+        <v>204.17816701594327</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>206.67979397101493</v>
+        <v>206.67979937758389</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>217.21243052820003</v>
+        <v>217.21243505494314</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>218.96278343084981</v>
+        <v>218.96278782780891</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>224.03454155825781</v>
+        <v>224.03454527509427</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>226.64910931595887</v>
+        <v>226.64911212938409</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>228.81430879377123</v>
+        <v>228.81431107405737</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>240.96706571312311</v>
+        <v>240.96707073706139</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>260.38224807165454</v>
+        <v>260.38225253200778</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>265.27999960529831</v>
+        <v>265.28000234921222</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>269.4983314661273</v>
+        <v>269.49833547257845</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>274.41763140305551</v>
+        <v>274.41763512044855</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>275.3803425574755</v>
+        <v>275.38034687968195</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>280.46998753590481</v>
+        <v>280.46999116207911</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>289.29209749465241</v>
+        <v>289.29210122067656</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>292.45561383763771</v>
+        <v>292.45561841557509</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>300.15639814370672</v>
+        <v>300.1564018173903</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>307.60092542192336</v>
+        <v>307.60092821674436</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>307.34755149727459</v>
+        <v>307.34755308792421</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>308.45282260657274</v>
+        <v>308.45282395055324</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>310.87961452860509</v>
+        <v>310.87961723044685</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>318.21714817120017</v>
+        <v>318.21715060494188</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>327.0398983731298</v>
+        <v>327.03990145571748</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>337.06218843281493</v>
+        <v>337.06218972671746</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>346.01953490752584</v>
+        <v>346.01953570851106</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>355.12441910768274</v>
+        <v>355.12441950419259</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>371.14578672943907</v>
+        <v>371.14578445899423</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>387.20574081375622</v>
+        <v>387.20573782452482</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>420.07749973853993</v>
+        <v>420.0775014553551</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>426.43871094001184</v>
+        <v>426.43871299981322</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>445.59725137014595</v>
+        <v>445.59725127355097</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>485.69958318195683</v>
+        <v>485.69957914187086</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>513.847991855852</v>
+        <v>513.84798807646871</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>532.19858832004377</v>
+        <v>532.19858271006467</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>569.05474303499955</v>
+        <v>569.0547355910461</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>628.63096044785084</v>
+        <v>628.63095390451292</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>705.78350790442414</v>
+        <v>705.78349617531956</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>762.99393372730913</v>
+        <v>762.99392311255451</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>825.71895007631201</v>
+        <v>825.71893518235493</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>887.57218127792862</v>
+        <v>887.57216651832823</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>952.69422499249845</v>
+        <v>952.69421487724412</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>985.54815563137117</v>
+        <v>985.54812731795653</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1107.3641376998694</v>
+        <v>1107.3641118584903</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1154.6329623589475</v>
+        <v>1154.6329419069766</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1215.6644071941355</v>
+        <v>1215.6643704732369</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1242.3302159646128</v>
+        <v>1242.3301776076355</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1336.9225460052376</v>
+        <v>1336.9225113291386</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1385.7852207758442</v>
+        <v>1385.7851651789151</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1430.6998973401037</v>
+        <v>1430.6998463047141</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1596.2780344691259</v>
+        <v>1596.2779887661495</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1633.1473144571751</v>
+        <v>1633.147289069253</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1663.3990777763931</v>
+        <v>1663.3990521825356</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1693.6912525146181</v>
+        <v>1693.6912161849605</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1761.3737516185768</v>
+        <v>1761.3737096171806</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1808.4032751281447</v>
+        <v>1808.4032336322894</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1831.5480844869637</v>
+        <v>1831.5480397161712</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1910.2119104642259</v>
+        <v>1910.2118679630566</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1922.2331009619822</v>
+        <v>1922.233062600711</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1963.8593362889269</v>
+        <v>1963.8593023192423</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>2015.7924328949284</v>
+        <v>2015.7923997888654</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>2040.6482873070433</v>
+        <v>2040.6482525480085</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>2064.7424462234844</v>
+        <v>2064.742408345202</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>2084.8064767010828</v>
+        <v>2084.8064388492867</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>2121.6422783732619</v>
+        <v>2121.6422440237302</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>2132.5996199026181</v>
+        <v>2132.5995857249727</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>2154.0771250855355</v>
+        <v>2154.0770823324574</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>2161.1159316049502</v>
+        <v>2161.1158871963835</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>2178.6465301740732</v>
+        <v>2178.6464862685993</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>2181.2371827660832</v>
+        <v>2181.2371426991558</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>2186.4872823499732</v>
+        <v>2186.4872423207594</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>2231.9317259167997</v>
+        <v>2231.9316876478952</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>2249.847785582956</v>
+        <v>2249.8477509281656</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>2244.5982999870776</v>
+        <v>2244.5982645648473</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>2257.105781967573</v>
+        <v>2257.1057473118226</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>2262.803571577303</v>
+        <v>2262.8035363260346</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>2257.6724260528358</v>
+        <v>2257.6723911665276</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>2254.8223410598262</v>
+        <v>2254.8223065354382</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>2259.3284622509227</v>
+        <v>2259.3284280655544</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>2252.2547787050562</v>
+        <v>2252.2547442191571</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>2249.7839217299565</v>
+        <v>2249.7838871381805</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>2244.3133475880509</v>
+        <v>2244.3133114816883</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>2238.2504645024192</v>
+        <v>2238.2504294865589</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>2227.7040448340781</v>
+        <v>2227.7040105354954</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>2221.0766478896071</v>
+        <v>2221.0766137348887</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>2216.1710129299822</v>
+        <v>2216.1709784381687</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>2207.5214200980968</v>
+        <v>2207.5213858635498</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>2198.4489505034421</v>
+        <v>2198.4489170290508</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>2189.7541439327692</v>
+        <v>2189.7541105396485</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>2183.0855694816637</v>
+        <v>2183.0855365831544</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>2172.5983034033952</v>
+        <v>2172.5982709651271</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>2164.2440969304807</v>
+        <v>2164.2440642509555</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>2156.9956087758815</v>
+        <v>2156.9955763511493</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>2150.8905135304253</v>
+        <v>2150.8904803107389</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>2143.3606151808672</v>
+        <v>2143.3605824088409</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>2133.570799057703</v>
+        <v>2133.5707663070057</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>2124.1099533664633</v>
+        <v>2124.1099209112967</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>2117.1092987715201</v>
+        <v>2117.1092669834588</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>2107.5772203025022</v>
+        <v>2107.577188739549</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>2099.0002845873505</v>
+        <v>2099.0002531181449</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>2089.597690192425</v>
+        <v>2089.5976589722682</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>2080.8369260809932</v>
+        <v>2080.8368946884725</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>2073.8596536081868</v>
+        <v>2073.8596228626329</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>2066.5288103992502</v>
+        <v>2066.5287811450344</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>2057.8954782429482</v>
+        <v>2057.8954488476429</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>2048.8688834648683</v>
+        <v>2048.8688539884383</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>2041.5558172727233</v>
+        <v>2041.5557877565479</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>2033.3466752362979</v>
+        <v>2033.3466461285989</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>2026.8295824399265</v>
+        <v>2026.829553172272</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>2020.4940270181357</v>
+        <v>2020.4939986194411</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>2012.4981781564784</v>
+        <v>2012.4981498917675</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>2004.9623031488907</v>
+        <v>2004.9622744248627</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1996.7696553903647</v>
+        <v>1996.7696266395715</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1989.2477251974251</v>
+        <v>1989.247696710454</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1984.3426730784959</v>
+        <v>1984.3426445625187</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1976.9892694495268</v>
+        <v>1976.9892404695622</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1970.0616075575549</v>
+        <v>1970.0615788248213</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1962.2707999003969</v>
+        <v>1962.2707713470852</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>1958.3957515378133</v>
+        <v>1958.3957223136927</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1950.4057024048623</v>
+        <v>1950.4056733911227</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1942.9330853726201</v>
+        <v>1942.9330564595</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>1937.4682545705541</v>
+        <v>1937.4682253511376</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>1931.0680183529309</v>
+        <v>1931.0679889232861</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>1924.5476807412531</v>
+        <v>1924.5476509157097</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>1916.515710047599</v>
+        <v>1916.5156803901423</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>1911.0590174207541</v>
+        <v>1911.0589879732215</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>1904.1809618218854</v>
+        <v>1904.1809316478495</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>1897.4365119027339</v>
+        <v>1897.436482163143</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1892.723665227815</v>
+        <v>1892.7236353232236</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1886.2883612725859</v>
+        <v>1886.2883317209662</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1879.7141618016919</v>
+        <v>1879.7141325397981</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1872.3152079944255</v>
+        <v>1872.3151791673918</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>1865.4839591582981</v>
+        <v>1865.4839305671601</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1860.3805396135888</v>
+        <v>1860.380511078758</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>1857.5673567099443</v>
+        <v>1857.5673289189717</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>1850.6839389518138</v>
+        <v>1850.6839116225824</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1844.9523833103065</v>
+        <v>1844.9523563850623</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>1841.6342273334212</v>
+        <v>1841.6342000774662</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>1836.2990045194051</v>
+        <v>1836.298978064616</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1831.9621544924382</v>
+        <v>1831.9621293254816</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1826.7265707865986</v>
+        <v>1826.7265450794102</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>1826.3693316083616</v>
+        <v>1826.3693055885344</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1821.0782547732074</v>
+        <v>1821.0782284613397</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1818.5683929967645</v>
+        <v>1818.5683664840383</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>1813.3158956506131</v>
+        <v>1813.315868787379</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>1807.8834377723786</v>
+        <v>1807.8834114467904</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1802.5073296472265</v>
+        <v>1802.5073032863579</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1796.9369766204106</v>
+        <v>1796.936950677147</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>1790.9265320437817</v>
+        <v>1790.926506288715</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1789.2757069396741</v>
+        <v>1789.27568149322</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1783.9903576600821</v>
+        <v>1783.9903312302765</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>1779.5107351800684</v>
+        <v>1779.5107086200085</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1774.3366498371583</v>
+        <v>1774.3366230582258</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>1769.0012033400326</v>
+        <v>1769.0011763507805</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>1763.3689596395202</v>
+        <v>1763.3689331108856</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>1758.6511955548235</v>
+        <v>1758.6511688617227</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1754.39108059821</v>
+        <v>1754.3910547275841</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>1749.5003659482977</v>
+        <v>1749.5003398176134</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1745.4098760193719</v>
+        <v>1745.4098491202951</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1740.096014734406</v>
+        <v>1740.0959873510772</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1735.9676906645909</v>
+        <v>1735.9676633725223</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>1732.7308557078388</v>
+        <v>1732.7308287631993</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>1730.4049028255333</v>
+        <v>1730.4048760876258</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>1726.4922953676494</v>
+        <v>1726.4922692092721</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>1721.8596107400244</v>
+        <v>1721.8595842351681</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>1717.1322072521291</v>
+        <v>1717.1321806373871</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>1711.9831968310568</v>
+        <v>1711.9831707402855</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>1707.5926684262104</v>
+        <v>1707.5926428830676</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1701.5847988028847</v>
+        <v>1701.5847732943816</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1696.9830542766117</v>
+        <v>1696.9830288381359</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1694.9081418962412</v>
+        <v>1694.908116215616</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>1690.8244000370839</v>
+        <v>1690.8243744138103</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>1688.1959888777451</v>
+        <v>1688.1959629870157</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>1682.6729286698405</v>
+        <v>1682.6729029218047</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>1677.8160482112175</v>
+        <v>1677.8160223363786</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>1673.3105371793954</v>
+        <v>1673.3105113052873</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1668.8023575682985</v>
+        <v>1668.8023322498595</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>1664.179867018931</v>
+        <v>1664.1798417774557</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>1659.1375572475363</v>
+        <v>1659.1375319623617</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1654.7063102011373</v>
+        <v>1654.7062848929181</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1652.1280352582185</v>
+        <v>1652.1280108693866</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>1648.7578058018466</v>
+        <v>1648.7577819249154</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>1644.1500710322841</v>
+        <v>1644.1500471338989</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>1644.0184112464074</v>
+        <v>1644.0183878982598</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>1638.775467076644</v>
+        <v>1638.775444061376</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>1636.3386024766746</v>
+        <v>1636.3385793227671</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>1633.3861529651133</v>
+        <v>1633.3861306507808</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>1632.0814270383182</v>
+        <v>1632.0814051844659</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>1628.0201446607477</v>
+        <v>1628.020122591616</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1624.260138045418</v>
+        <v>1624.260116004509</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1619.6910792657882</v>
+        <v>1619.6910574807614</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>1615.4365186125544</v>
+        <v>1615.4364969757348</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>1613.0352537338497</v>
+        <v>1613.0352313630858</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>1608.2452334499098</v>
+        <v>1608.2452115025376</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>1606.135782773199</v>
+        <v>1606.1357606467586</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>1601.4856422365149</v>
+        <v>1601.4856202902517</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>1597.533315145035</v>
+        <v>1597.5332931927107</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>1593.1275724272573</v>
+        <v>1593.127550482513</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>1589.7421675214446</v>
+        <v>1589.7421450932977</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1585.9477167912059</v>
+        <v>1585.9476943489226</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1583.649126268522</v>
+        <v>1583.6491041933987</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>1580.3953522442735</v>
+        <v>1580.3953305928519</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>1576.2540264530107</v>
+        <v>1576.2540044435832</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>1571.6907697520346</v>
+        <v>1571.6907477644838</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>1569.7349121516102</v>
+        <v>1569.7348906950101</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>1565.9450793930002</v>
+        <v>1565.9450580912464</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>1561.7065466199299</v>
+        <v>1561.7065254081467</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>1558.0761009554979</v>
+        <v>1558.0760799558341</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>1553.7770371592117</v>
+        <v>1553.7770161626643</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1549.1341163603629</v>
+        <v>1549.13409539025</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1544.4838318273246</v>
+        <v>1544.48381092916</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>1541.1816138690915</v>
+        <v>1541.1815930358835</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>1536.5279428379149</v>
+        <v>1536.5279221404103</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>1533.6577993341725</v>
+        <v>1533.6577787392625</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>1529.2451038209795</v>
+        <v>1529.2450833644918</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>1524.6598619261981</v>
+        <v>1524.6598415436433</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>1520.0739711208535</v>
+        <v>1520.0739508119268</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>1516.0885312509922</v>
+        <v>1516.0885110725385</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>1512.0308757303453</v>
+        <v>1512.0308557389685</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1507.5374822418898</v>
+        <v>1507.5374623427974</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1503.0370652493516</v>
+        <v>1503.0370453821483</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>1498.524678648032</v>
+        <v>1498.5246588303032</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>1494.1711515199511</v>
+        <v>1494.1711317705265</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>1489.9320971275069</v>
+        <v>1489.9320774640496</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>1485.5959077644957</v>
+        <v>1485.5958881877107</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>1481.1670876279372</v>
+        <v>1481.1670681346725</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1476.8807541341912</v>
+        <v>1476.8807346978454</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>1472.5401596200584</v>
+        <v>1472.5401402458722</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1468.2657342255625</v>
+        <v>1468.2657148790258</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>1464.0135755976507</v>
+        <v>1464.0135562791231</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>1459.7274314254994</v>
+        <v>1459.7274121543721</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>1455.4363365302288</v>
+        <v>1455.4363173162565</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>1451.164166550313</v>
+        <v>1451.164147396097</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>1446.9205967761791</v>
+        <v>1446.9205776745582</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>1442.8386307379658</v>
+        <v>1442.8386116819597</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>1438.8845595178691</v>
+        <v>1438.8845405306306</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>1434.737330176514</v>
+        <v>1434.737311245927</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/MSFE_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -48,11 +48,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -66,6 +68,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,1717 +692,1717 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>11.19027594051609</v>
+        <v>11.321448477578238</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>7.5303384357471543</v>
+        <v>7.604604106048888</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>6.747104320797952</v>
+        <v>6.3365720284870557</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>5.5835283022981672</v>
+        <v>5.2317926171681224</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>9.1585192981379198</v>
+        <v>8.8862524049684115</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>9.3120532366870936</v>
+        <v>9.0848370844733406</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>8.3422978838417219</v>
+        <v>8.1499841904069594</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>8.2796223208018969</v>
+        <v>8.1263337185231954</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>7.4923507095912116</v>
+        <v>7.3495218819791122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>10.224074034053878</v>
+        <v>9.6701885501460243</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>10.098524794691533</v>
+        <v>9.3904268608423589</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>11.416956750360837</v>
+        <v>10.725104258097598</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>10.641107660128911</v>
+        <v>9.9727763672793177</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>10.8405273755398</v>
+        <v>10.194693723519777</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>10.281678570459038</v>
+        <v>9.6804196122605468</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>9.7163999369547351</v>
+        <v>9.1527907525925478</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>9.7323372047510475</v>
+        <v>8.7503628618562637</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>9.3774815323561267</v>
+        <v>8.3308686640755347</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>9.0879644194919589</v>
+        <v>8.040811601735431</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>9.0635555258999254</v>
+        <v>8.0606277069092371</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>9.646326943997213</v>
+        <v>8.7017576371218279</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>9.2273248964950891</v>
+        <v>8.3241347778965284</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>9.5174373101854695</v>
+        <v>8.6508857634950953</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>10.803222131634156</v>
+        <v>9.3095573092011641</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>10.469473629508391</v>
+        <v>9.185189136473868</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>11.068359905554052</v>
+        <v>9.7305784546635898</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>11.669622035735163</v>
+        <v>10.366320842022846</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>11.543568388449684</v>
+        <v>10.290489920032217</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>11.209293879918937</v>
+        <v>10.001959196612978</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>11.101528508922318</v>
+        <v>9.9439464842011471</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>10.843373178008621</v>
+        <v>9.6440779918419555</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>10.624436215335717</v>
+        <v>9.4257931970468736</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>11.732109507085671</v>
+        <v>10.546255246155866</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>11.442539817234897</v>
+        <v>10.288878759070496</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>11.407576499968449</v>
+        <v>10.295669420650722</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>11.10033892775413</v>
+        <v>10.017996752804098</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>10.96209226585268</v>
+        <v>9.9147541625906968</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>11.34541322429755</v>
+        <v>9.8876325357858033</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>11.073945932400145</v>
+        <v>9.6921579816500323</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>11.257098741881402</v>
+        <v>9.8624936283828237</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>11.152924846178905</v>
+        <v>9.7904569191067115</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>11.934611827327494</v>
+        <v>10.533327425867167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>13.829850898132754</v>
+        <v>12.458513360737987</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>14.194173157334644</v>
+        <v>12.826204363399272</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>14.228039903791924</v>
+        <v>12.555056485689718</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>14.19572684270203</v>
+        <v>12.491287537218387</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>16.389254187556318</v>
+        <v>14.679111359406114</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>18.244911662649503</v>
+        <v>16.413642309554728</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>18.77762117888561</v>
+        <v>16.975664666028749</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>21.882960854527926</v>
+        <v>20.144276452843012</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>21.931153967299903</v>
+        <v>20.234894364785127</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>23.185816433041879</v>
+        <v>20.961838636235989</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>24.6033711332698</v>
+        <v>22.281709435028151</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>29.195893748950901</v>
+        <v>26.856855204176167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>29.50461604982609</v>
+        <v>27.222453209900298</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>30.55038608429907</v>
+        <v>28.336047556432483</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>36.605022445100488</v>
+        <v>34.490564320291035</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>38.489724367364232</v>
+        <v>36.418831722246225</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>41.511056703617768</v>
+        <v>38.688755041404519</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>41.744672817285483</v>
+        <v>38.809217934206579</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>46.966823224394112</v>
+        <v>44.038467143246159</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>52.041531069111009</v>
+        <v>49.202200973332978</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>52.831220258653815</v>
+        <v>50.069704388456607</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>52.552628014228247</v>
+        <v>49.85160110575076</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>55.026795925282265</v>
+        <v>52.409601448626987</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>57.794121214462741</v>
+        <v>54.402002998359151</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>57.830352246092261</v>
+        <v>54.393846665013456</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>60.358211481094678</v>
+        <v>56.964003902509269</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>63.729969922557565</v>
+        <v>60.426541539983383</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>64.946328746953967</v>
+        <v>61.729299576825404</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>64.38660523742054</v>
+        <v>61.229647231430562</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>67.456851435169781</v>
+        <v>64.390540452234163</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>74.507111649277675</v>
+        <v>69.840940011495007</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>73.553816727879209</v>
+        <v>68.912057333103434</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>74.413962047922084</v>
+        <v>69.77052374283339</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>73.703275481364642</v>
+        <v>69.124473961241833</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>74.550869871530466</v>
+        <v>70.056297620723768</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>75.117687441148391</v>
+        <v>70.709827687514888</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>75.353349161396991</v>
+        <v>71.02779470459727</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>79.285988428338385</v>
+        <v>73.761653104686005</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>80.298133990178286</v>
+        <v>74.564033628502841</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>82.517008919990104</v>
+        <v>76.801599803881388</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>84.11342719483325</v>
+        <v>78.495886268082302</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>85.698248040417766</v>
+        <v>80.193287392436687</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>85.604061136032115</v>
+        <v>80.192580730838699</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>88.828188888460019</v>
+        <v>83.119110156379435</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>91.73813138155559</v>
+        <v>84.045186730742572</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>92.30062259259185</v>
+        <v>84.31438800021094</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>95.314238494362513</v>
+        <v>86.921159589919029</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>95.614105401347601</v>
+        <v>87.098531887858158</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>99.522288492553812</v>
+        <v>90.898734600788742</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>100.79825975482967</v>
+        <v>92.280259043481308</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>104.16209597311122</v>
+        <v>94.921625908513946</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>109.39424099163141</v>
+        <v>97.751178348402405</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>115.37478931398762</v>
+        <v>101.59771968205978</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>118.31531988137358</v>
+        <v>104.26349291107844</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>125.02995376936336</v>
+        <v>111.10401712219398</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>128.87582969892085</v>
+        <v>115.23150594486292</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>136.60476282407768</v>
+        <v>123.30779968350743</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>142.24530840918183</v>
+        <v>129.16628384301882</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>148.88484402746545</v>
+        <v>132.10586475425055</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>155.70192348232482</v>
+        <v>137.31656609108171</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>169.4471130728642</v>
+        <v>150.82370573038349</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>178.28290595837353</v>
+        <v>160.05421326216228</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>179.42287705441547</v>
+        <v>161.53577316565924</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>180.82376566136054</v>
+        <v>163.24286663006131</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>187.31520994234813</v>
+        <v>170.11312307847572</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>204.17816701594327</v>
+        <v>179.10357370416708</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>206.67979937758389</v>
+        <v>180.52733133883663</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>217.21243505494314</v>
+        <v>190.87338641783356</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>218.96278782780891</v>
+        <v>192.98308585864748</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>224.03454527509427</v>
+        <v>198.49305911557147</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>226.64911212938409</v>
+        <v>201.54518520811661</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>228.81431107405737</v>
+        <v>204.12202806194293</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>240.96707073706139</v>
+        <v>207.51501111622363</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>260.38225253200778</v>
+        <v>220.93024199412739</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>265.28000234921222</v>
+        <v>225.35923907296259</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>269.49833547257845</v>
+        <v>229.91768645669515</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>274.41763512044855</v>
+        <v>235.4035244442839</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>275.38034687968195</v>
+        <v>236.90190178113357</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>280.46999116207911</v>
+        <v>241.05720156508752</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>289.29210122067656</v>
+        <v>242.4979730816992</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>292.45561841557509</v>
+        <v>242.40296136783715</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>300.1564018173903</v>
+        <v>249.03125655998164</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>307.60092821674436</v>
+        <v>256.68387833139502</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>307.34755308792421</v>
+        <v>256.95727735609381</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>308.45282395055324</v>
+        <v>258.61538542891998</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>310.87961723044685</v>
+        <v>261.05061821527266</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>318.21715060494188</v>
+        <v>260.09830980967052</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>327.03990145571748</v>
+        <v>264.6963532398384</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>337.06218972671746</v>
+        <v>272.39931146497781</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>346.01953570851106</v>
+        <v>279.1706097565833</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>355.12441950419259</v>
+        <v>288.36429523241367</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>371.14578445899423</v>
+        <v>305.25779352098442</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>387.20573782452482</v>
+        <v>317.93169138401618</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>420.0775014553551</v>
+        <v>325.52707528261237</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>426.43871299981322</v>
+        <v>324.08658156641667</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>445.59725127355097</v>
+        <v>339.64924730482448</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>485.69957914187086</v>
+        <v>379.84511813717683</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>513.84798807646871</v>
+        <v>409.95109229571443</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>532.19858271006467</v>
+        <v>430.29221176326314</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>569.0547355910461</v>
+        <v>467.91153218026034</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>628.63095390451292</v>
+        <v>484.96647511521456</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>705.78349617531956</v>
+        <v>526.8646558722744</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>762.99392311255451</v>
+        <v>570.27593831957313</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>825.71893518235493</v>
+        <v>625.03642691547464</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>887.57216651832823</v>
+        <v>688.44099090590612</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>952.69421487724412</v>
+        <v>757.4332139871359</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>985.54812731795653</v>
+        <v>783.99348236902597</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1107.3641118584903</v>
+        <v>806.95917011265044</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1154.6329419069766</v>
+        <v>833.33006309246082</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1215.6643704732369</v>
+        <v>890.82550594424913</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1242.3301776076355</v>
+        <v>919.78069788269124</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>1336.9225113291386</v>
+        <v>1018.7682006684881</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1385.7851651789151</v>
+        <v>1035.5433343199466</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1430.6998463047141</v>
+        <v>1069.5242326056996</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1596.2779887661495</v>
+        <v>1116.6052281861175</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1633.147289069253</v>
+        <v>1120.735274483613</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1663.3990521825356</v>
+        <v>1125.0230290086433</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1693.6912161849605</v>
+        <v>1149.5517071665538</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1761.3737096171806</v>
+        <v>1218.2779763586777</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1808.4032336322894</v>
+        <v>1215.170688797949</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1831.5480397161712</v>
+        <v>1226.8979035084117</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1910.2118679630566</v>
+        <v>1232.8821938509248</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1922.233062600711</v>
+        <v>1235.0899693883737</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1963.8593023192423</v>
+        <v>1274.7435989466219</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>2015.7923997888654</v>
+        <v>1329.8555796356161</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>2040.6482525480085</v>
+        <v>1359.4816003114308</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>2064.742408345202</v>
+        <v>1388.7380652309184</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>2084.8064388492867</v>
+        <v>1413.9752660546974</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>2121.6422440237302</v>
+        <v>1410.6794939140364</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>2132.5995857249727</v>
+        <v>1414.4335178549786</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>2154.0770823324574</v>
+        <v>1436.2792934205274</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>2161.1158871963835</v>
+        <v>1428.1070332541506</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>2178.6464862685993</v>
+        <v>1438.8848727894149</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>2181.2371426991558</v>
+        <v>1443.7353102800066</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>2186.4872423207594</v>
+        <v>1453.0503807276652</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>2231.9316876478952</v>
+        <v>1451.7590168716135</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>2249.8477509281656</v>
+        <v>1447.8252990875467</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>2244.5982645648473</v>
+        <v>1442.8143866611233</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>2257.1057473118226</v>
+        <v>1443.2299905449258</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>2262.8035363260346</v>
+        <v>1448.7806425833085</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>2257.6723911665276</v>
+        <v>1447.4256112637061</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>2254.8223065354382</v>
+        <v>1449.0136245564277</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>2259.3284280655544</v>
+        <v>1455.2656251338717</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>2252.2547442191571</v>
+        <v>1447.4891619566833</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>2249.7838871381805</v>
+        <v>1446.2386145385919</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>2244.3133114816883</v>
+        <v>1439.119422692286</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>2238.2504294865589</v>
+        <v>1433.9302440387908</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>2227.7040105354954</v>
+        <v>1427.1804556191103</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>2221.0766137348887</v>
+        <v>1424.5728456685295</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>2216.1709784381687</v>
+        <v>1435.9238566739916</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>2207.5213858635498</v>
+        <v>1428.5309169120683</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>2198.4489170290508</v>
+        <v>1422.3430098486238</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>2189.7541105396485</v>
+        <v>1421.6988896985094</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>2183.0855365831544</v>
+        <v>1415.7470794272347</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>2172.5982709651271</v>
+        <v>1408.8184649987752</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>2164.2440642509555</v>
+        <v>1404.1245419793813</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>2156.9955763511493</v>
+        <v>1410.6510873742511</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>2150.8904803107389</v>
+        <v>1404.2484685441848</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>2143.3605824088409</v>
+        <v>1397.6334663071934</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>2133.5707663070057</v>
+        <v>1397.5417846784517</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>2124.1099209112967</v>
+        <v>1390.7514013405114</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>2117.1092669834588</v>
+        <v>1386.683427945648</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>2107.577188739549</v>
+        <v>1380.6010008570975</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>2099.0002531181449</v>
+        <v>1381.1118434665148</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>2089.5976589722682</v>
+        <v>1374.4775896892377</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>2080.8368946884725</v>
+        <v>1368.5072936284248</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>2073.8596228626329</v>
+        <v>1362.0784259809586</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>2066.5287811450344</v>
+        <v>1356.6484444402961</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>2057.8954488476429</v>
+        <v>1351.0538181669017</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>2048.8688539884383</v>
+        <v>1345.2797602687951</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>2041.5557877565479</v>
+        <v>1344.0425240514439</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>2033.3466461285989</v>
+        <v>1337.8362588697159</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>2026.829553172272</v>
+        <v>1333.7862565629241</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>2020.4939986194411</v>
+        <v>1327.8620262033273</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>2012.4981498917675</v>
+        <v>1322.0610175870638</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>2004.9622744248627</v>
+        <v>1317.3088043104483</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1996.7696266395715</v>
+        <v>1312.1572392716673</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1989.247696710454</v>
+        <v>1309.8607902248875</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1984.3426445625187</v>
+        <v>1305.616014893279</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1976.9892404695622</v>
+        <v>1300.801009080358</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1970.0615788248213</v>
+        <v>1295.1610391401625</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1962.2707713470852</v>
+        <v>1289.681039071424</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>1958.3957223136927</v>
+        <v>1288.2722316858872</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1950.4056733911227</v>
+        <v>1282.7712371285736</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1942.9330564595</v>
+        <v>1278.7734656590517</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>1937.4682253511376</v>
+        <v>1274.6312122661</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>1931.0679889232861</v>
+        <v>1270.6757359333433</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>1924.5476509157097</v>
+        <v>1265.1902599125267</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>1916.5156803901423</v>
+        <v>1259.7703103012989</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>1911.0589879732215</v>
+        <v>1256.8654114615142</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>1904.1809316478495</v>
+        <v>1252.4979263167679</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>1897.436482163143</v>
+        <v>1247.4962457200156</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1892.7236353232236</v>
+        <v>1244.1216988392559</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1886.2883317209662</v>
+        <v>1240.0977526809966</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1879.7141325397981</v>
+        <v>1235.0199458351503</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1872.3151791673918</v>
+        <v>1230.0691498466597</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>1865.4839305671601</v>
+        <v>1225.805044995149</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1860.380511078758</v>
+        <v>1222.9046435854193</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>1857.5673289189717</v>
+        <v>1218.4373458855553</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>1850.6839116225824</v>
+        <v>1213.5715060830546</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1844.9523563850623</v>
+        <v>1210.1218566560649</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>1841.6342000774662</v>
+        <v>1207.4203746937035</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>1836.298978064616</v>
+        <v>1204.1831988860395</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1831.9621293254816</v>
+        <v>1202.2344083789831</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1826.7265450794102</v>
+        <v>1199.2336846649903</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>1826.3693055885344</v>
+        <v>1194.9364713683947</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1821.0782284613397</v>
+        <v>1190.4614679908252</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1818.5683664840383</v>
+        <v>1189.4964518636943</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>1813.315868787379</v>
+        <v>1186.547244164633</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>1807.8834114467904</v>
+        <v>1183.5474936514572</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1802.5073032863579</v>
+        <v>1179.6158503770755</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1796.936950677147</v>
+        <v>1174.9959323166047</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>1790.926506288715</v>
+        <v>1170.4852541888899</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1789.27568149322</v>
+        <v>1167.7103312000488</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1783.9903312302765</v>
+        <v>1164.1043639259469</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>1779.5107086200085</v>
+        <v>1160.5789025295423</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1774.3366230582258</v>
+        <v>1157.383781395507</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>1769.0011763507805</v>
+        <v>1154.2964579624736</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>1763.3689331108856</v>
+        <v>1150.8321417666682</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>1758.6511688617227</v>
+        <v>1146.4632242777238</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1754.3910547275841</v>
+        <v>1143.3979550810022</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>1749.5003398176134</v>
+        <v>1140.4933683521233</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1745.4098491202951</v>
+        <v>1137.2352187856991</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1740.0959873510772</v>
+        <v>1133.8553619670001</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1735.9676633725223</v>
+        <v>1131.8425537023629</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>1732.7308287631993</v>
+        <v>1129.906714312848</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>1730.4048760876258</v>
+        <v>1126.0650671313813</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>1726.4922692092721</v>
+        <v>1123.212620840178</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>1721.8595842351681</v>
+        <v>1120.4904827654129</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>1717.1321806373871</v>
+        <v>1116.4176897244065</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>1711.9831707402855</v>
+        <v>1112.9268809837627</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>1707.5926428830676</v>
+        <v>1110.498570086072</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1701.5847732943816</v>
+        <v>1106.4781465640883</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1696.9830288381359</v>
+        <v>1102.495479362392</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1694.908116215616</v>
+        <v>1101.3670622449542</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>1690.8243744138103</v>
+        <v>1098.7136549534487</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>1688.1959629870157</v>
+        <v>1095.2547963888724</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>1682.6729029218047</v>
+        <v>1091.4782163568811</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>1677.8160223363786</v>
+        <v>1088.534245510351</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>1673.3105113052873</v>
+        <v>1085.1099527878446</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1668.8023322498595</v>
+        <v>1081.2910302439111</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>1664.1798417774557</v>
+        <v>1078.1321579451794</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>1659.1375319623617</v>
+        <v>1074.4863545650678</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1654.7062848929181</v>
+        <v>1070.770513058166</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1652.1280108693866</v>
+        <v>1069.3009354161554</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>1648.7577819249154</v>
+        <v>1067.6611181726232</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>1644.1500471338989</v>
+        <v>1064.3452053181427</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>1644.0183878982598</v>
+        <v>1062.1515565933687</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>1638.775444061376</v>
+        <v>1058.5705027061313</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>1636.3385793227671</v>
+        <v>1056.2691189492509</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>1633.3861306507808</v>
+        <v>1054.6852866079207</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>1632.0814051844659</v>
+        <v>1055.0789058827163</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>1628.020122591616</v>
+        <v>1052.8981423058822</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1624.260116004509</v>
+        <v>1049.7643782788739</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1619.6910574807614</v>
+        <v>1046.2431032241334</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>1615.4364969757348</v>
+        <v>1043.4111941727626</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>1613.0352313630858</v>
+        <v>1042.654719960881</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>1608.2452115025376</v>
+        <v>1039.1934259274692</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>1606.1357606467586</v>
+        <v>1038.2452110949703</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>1601.4856202902517</v>
+        <v>1035.3557393046274</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>1597.5332931927107</v>
+        <v>1032.5060786657712</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>1593.127550482513</v>
+        <v>1029.3963946451786</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>1589.7421450932977</v>
+        <v>1026.7168662315125</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1585.9476943489226</v>
+        <v>1024.3980978073355</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1583.6491041933987</v>
+        <v>1021.6542887154484</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>1580.3953305928519</v>
+        <v>1019.4954894373697</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>1576.2540044435832</v>
+        <v>1016.9946538890827</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>1571.6907477644838</v>
+        <v>1013.7511131943236</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>1569.7348906950101</v>
+        <v>1011.8123394144542</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>1565.9450580912464</v>
+        <v>1009.3907061806358</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>1561.7065254081467</v>
+        <v>1006.5582269571514</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>1558.0760799558341</v>
+        <v>1003.4051814255057</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>1553.7770161626643</v>
+        <v>1000.498504473603</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1549.13409539025</v>
+        <v>997.52538483064347</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1544.48381092916</v>
+        <v>994.39006201888697</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>1541.1815930358835</v>
+        <v>991.96756138535568</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>1536.5279221404103</v>
+        <v>988.93696110995938</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>1533.6577787392625</v>
+        <v>987.54293636834473</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>1529.2450833644918</v>
+        <v>984.49237881323859</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>1524.6598415436433</v>
+        <v>981.48123139688391</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>1520.0739508119268</v>
+        <v>978.53714283515433</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>1516.0885110725385</v>
+        <v>975.80721969931767</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>1512.0308557389685</v>
+        <v>973.04994330848467</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1507.5374623427974</v>
+        <v>970.14716690952537</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1503.0370453821483</v>
+        <v>967.25128657997175</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>1498.5246588303032</v>
+        <v>964.31756446974362</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>1494.1711317705265</v>
+        <v>961.51484936398845</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>1489.9320774640496</v>
+        <v>958.85550982574864</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>1485.5958881877107</v>
+        <v>955.98082129887246</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>1481.1670681346725</v>
+        <v>953.11287259710525</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1476.8807346978454</v>
+        <v>950.38183777121878</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>1472.5401402458722</v>
+        <v>947.58413275951375</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1468.2657148790258</v>
+        <v>944.7712663442237</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>1464.0135562791231</v>
+        <v>942.01162138798509</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>1459.7274121543721</v>
+        <v>939.25617754371831</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>1455.4363173162565</v>
+        <v>936.48566414504364</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>1451.164147396097</v>
+        <v>933.73398472149211</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>1446.9205776745582</v>
+        <v>931.00083131519887</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>1442.8386116819597</v>
+        <v>928.3536084925563</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>1438.8845405306306</v>
+        <v>925.66624133467644</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>1434.737311245927</v>
+        <v>922.98008529399078</v>
       </c>
     </row>
   </sheetData>
